--- a/basic_results/consensus.xlsx
+++ b/basic_results/consensus.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zpwang\Desktop\0_master\Emnets\可信泛在互联\timeChain\IotDataAccessExp\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zpwang\Desktop\0_master\Emnets\可信泛在互联\timeChain\IotDataAccessExp\basic_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E4797F-1A04-4EF9-ACE6-2D9A9E8340E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6421ABC1-859B-415E-B058-C7EF505A74CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="3588" windowWidth="17028" windowHeight="12888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -62,6 +62,294 @@
   </si>
   <si>
     <t>Unnamed: 13</t>
+  </si>
+  <si>
+    <t>44.5050158049207</t>
+  </si>
+  <si>
+    <t>80.91080830049786</t>
+  </si>
+  <si>
+    <t>27.384278447472724</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2877</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2624</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4919</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8965</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6923</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7570511737882114</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.778434518280841</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5846140854585374</t>
+  </si>
+  <si>
+    <t>42.350334076064854</t>
+  </si>
+  <si>
+    <t>75.6074371244884</t>
+  </si>
+  <si>
+    <t>25.544880943735627</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2272</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2108</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3976</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7498</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7736</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5828</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7674513817809622</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7858594067452255</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5944512443900449</t>
+  </si>
+  <si>
+    <t>40.62596925454622</t>
+  </si>
+  <si>
+    <t>71.35138949065234</t>
+  </si>
+  <si>
+    <t>24.318182047122583</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2074</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1805</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3367</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6464</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6596</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4970</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7570859686109159</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7851446256398048</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5961376994122586</t>
+  </si>
+  <si>
+    <t>41.33226150141005</t>
+  </si>
+  <si>
+    <t>71.9045402929</t>
+  </si>
+  <si>
+    <t>24.531735604974713</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2151</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1974</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3685</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6781</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6910</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5233</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7591804746977161</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7778027915353445</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.586790760260148</t>
+  </si>
+  <si>
+    <t>39.55109392307211</t>
+  </si>
+  <si>
+    <t>69.2946598721415</t>
+  </si>
+  <si>
+    <t>23.54107799927493</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1940</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1745</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3192</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6077</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4671</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7580142197829612</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7808890005022602</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5940480732544831</t>
+  </si>
+  <si>
+    <t>39.2915008042259</t>
+  </si>
+  <si>
+    <t>68.76961147450257</t>
+  </si>
+  <si>
+    <t>23.506404595992358</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1924</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1813</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3361</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6029</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6185</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4725</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7580787124355589</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7733183295823955</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5843433094236953</t>
+  </si>
+  <si>
+    <t>37.61242300618902</t>
+  </si>
+  <si>
+    <t>65.64830187666256</t>
+  </si>
+  <si>
+    <t>22.452740887252965</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1778</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1561</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2843</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5356</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5460</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4177</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7507709559854219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7776669990029911</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.595014245014245</t>
+  </si>
+  <si>
+    <t>36.79815886907309</t>
+  </si>
+  <si>
+    <t>64.75413253628724</t>
+  </si>
+  <si>
+    <t>21.65491427303739</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1628</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1467</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2692</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5067</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5253</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3967</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7568334578043316</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7816964285714286</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5957350953596636</t>
   </si>
 </sst>
 </file>
@@ -436,7 +724,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -489,6 +777,42 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
       <c r="N2">
         <v>1</v>
       </c>
@@ -497,6 +821,42 @@
       <c r="A3">
         <v>10</v>
       </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
       <c r="N3">
         <v>1</v>
       </c>
@@ -505,6 +865,42 @@
       <c r="A4">
         <v>20</v>
       </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
       <c r="N4">
         <v>1</v>
       </c>
@@ -513,6 +909,42 @@
       <c r="A5">
         <v>25</v>
       </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" t="s">
+        <v>61</v>
+      </c>
       <c r="N5">
         <v>1</v>
       </c>
@@ -521,6 +953,42 @@
       <c r="A6">
         <v>40</v>
       </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" t="s">
+        <v>73</v>
+      </c>
       <c r="N6">
         <v>1</v>
       </c>
@@ -529,6 +997,42 @@
       <c r="A7">
         <v>50</v>
       </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="s">
+        <v>85</v>
+      </c>
       <c r="N7">
         <v>1</v>
       </c>
@@ -537,6 +1041,42 @@
       <c r="A8">
         <v>80</v>
       </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="s">
+        <v>97</v>
+      </c>
       <c r="N8">
         <v>1</v>
       </c>
@@ -544,6 +1084,42 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="s">
+        <v>109</v>
       </c>
       <c r="N9">
         <v>1</v>
